--- a/data.xlsx
+++ b/data.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,35 +465,70 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>XL</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>3XL</t>
-        </is>
-      </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>Описание</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Материалы</t>
         </is>
@@ -502,479 +537,392 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>150026-S</t>
+          <t>1832.60</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Подарки на День энергетика 22 декабря</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/2947</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Черный</t>
+          <t>белая</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>195</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="J2" t="n">
-        <v>151</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1664</v>
-      </c>
-      <c r="M2" t="n">
-        <v>379</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>103</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>150007-S</t>
+          <t>1832.50</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Подарки на День энергетика 22 декабря</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/2955</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Зеленый</t>
+          <t>красная</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>195</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="L3" t="n">
-        <v>21</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>11</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>150003-S</t>
+          <t>1832.89</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Подарки на День энергетика 22 декабря</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/2972</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Бирюза</t>
+          <t>лимонно-желтая</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>195</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>241</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>147</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>150005-S</t>
+          <t>1832.94</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Подарки на День энергетика 22 декабря</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/49821</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Голубой</t>
+          <t>зеленое яблоко</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>195</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>7</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>150025-S</t>
+          <t>1832.44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Подарки на День энергетика 22 декабря</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/49826</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Фиолет</t>
+          <t>ярко-синяя (royal)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>195</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L6" t="n">
-        <v>202</v>
-      </c>
-      <c r="M6" t="n">
-        <v>57</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>54</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>150012-S</t>
+          <t>1832.57</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Подарки на День энергетика 22 декабря</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/49825</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Оливковый</t>
+          <t>ярко-розовая (фуксия)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>195</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>549</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>22</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>150004-S</t>
+          <t>1832.30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Подарки на День энергетика 22 декабря</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/2980</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Бордовый</t>
+          <t>черная</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>195</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>2</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>150016-S</t>
+          <t>16121.60</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Промо одежда</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка мужская Simpler, белая</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/174580</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Салатовый</t>
+          <t>белая</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
-        <v>159</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>8</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Кроеная футболка приталенного силуэта. Укрепляющая тесьма по вороту. Круглый вырез отделан резинкой. Лейбл производителя в боковом шве изнутри, в шве горловины — только бирка с размером, что позволяет вам нанести свой логотип.</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 145 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>150008-S</t>
+          <t>16122.30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -984,56 +932,50 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Simpler, черная</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/174594</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Красный</t>
+          <t>черная</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>195</v>
-      </c>
-      <c r="I10" t="n">
-        <v>586</v>
+        <v>320</v>
       </c>
       <c r="J10" t="n">
-        <v>783</v>
+        <v>112</v>
       </c>
       <c r="K10" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>455</v>
-      </c>
-      <c r="M10" t="n">
-        <v>569</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>63</v>
+      </c>
+      <c r="N10" t="n">
+        <v>33</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Классическая футболка приталенного кроя. Круглый вырез отделан резинкой. Укрепляющая тесьма по вороту.Лейбл производителя в боковом шве изнутри, в шве горловины — только бирка с размером, что позволяет вам нанести свой логотип.</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 145 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>150013-S</t>
+          <t>16122.60</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1043,56 +985,53 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Simpler, черная</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/174587</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Оранжевый</t>
+          <t>белая</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>195</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="L11" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="M11" t="n">
-        <v>37</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>91</v>
+      </c>
+      <c r="N11" t="n">
+        <v>35</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Классическая футболка приталенного кроя. Круглый вырез отделан резинкой. Укрепляющая тесьма по вороту.Лейбл производителя в боковом шве изнутри, в шве горловины — только бирка с размером, что позволяет вам нанести свой логотип.</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 145 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>150018-S</t>
+          <t>6674.40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1102,56 +1041,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Unit Stretch 190, темно-синяя</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/60053</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Желтый</t>
+          <t>темно-синяя</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>402</v>
-      </c>
-      <c r="M12" t="n">
-        <v>213</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+        <v>8</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Кроеная футболка стретч, ворот отделан резинкой 1x1 с эластаном, двойная отстрочка плечевых швов. Добавление эластана делает футболку более приятной к телу, улучшает посадку по фигуре, а также облегчает нанесение изображения на ткань.</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>хлопок 95%; эластан 5%, плотность 190 г/м²; джерси</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>150002-S</t>
+          <t>6674.44</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1161,49 +1085,989 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Промо футболки “Эконом”</t>
+          <t>Футболка женская Unit Stretch 190, темно-синяя</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.modern-it.ru/futbolki/466/84/promo-futbolki-ekonom/promo-futbolki-ekonomwhite-detail</t>
+          <t>https://gifts.ru/id/60028</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Белый</t>
+          <t>ярко-синяя</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>195</v>
+        <v>320</v>
       </c>
       <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Кроеная футболка стретч, ворот отделан резинкой 1x1 с эластаном, двойная отстрочка плечевых швов. Добавление эластана делает футболку более приятной к телу, улучшает посадку по фигуре, а также облегчает нанесение изображения на ткань.</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>хлопок 95%; эластан 5%, плотность 190 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14667.60</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Промо одежда</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Футболка унисекс Paint Tee, белая</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/213501</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>белая</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>380</v>
+      </c>
+      <c r="O14" t="n">
+        <v>126</v>
+      </c>
+      <c r="P14" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>160</v>
+      </c>
+      <c r="R14" t="n">
+        <v>64</v>
+      </c>
+      <c r="S14" t="n">
+        <v>50</v>
+      </c>
+      <c r="T14" t="n">
+        <v>74</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Футболка Paint Tee из гладкого полиэстера с комфортной изнанкой, напоминающей натуральный хлопок, отлично подходит для сублимационной печати.Кроеная футболка унисекс прямого силуэта. Плечевые швы усилены отстрочкой. Круглый вырез отделан кантом из основного материала.</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, плотность 160 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2662.60</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/5636</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>белая</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>380</v>
+      </c>
+      <c r="J15" t="n">
+        <v>436</v>
+      </c>
+      <c r="K15" t="n">
+        <v>485</v>
+      </c>
+      <c r="L15" t="n">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>161</v>
+      </c>
+      <c r="N15" t="n">
+        <v>35</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2662.11</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/50322</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>серый меланж</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>440</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19</v>
+      </c>
+      <c r="L16" t="n">
+        <v>19</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16</v>
+      </c>
+      <c r="N16" t="n">
+        <v>40</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2662.10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/66927</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>темно-серая</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>440</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="n">
-        <v>2685</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5380</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Легкая футболка для промо мероприятий
-Широкая цветовая гамма
-Размерный ряд сдвинут на одно значение (маленькие размеры подходят для девушек)
-Качество пошива – на уровне моделей премиум-качества в линейке Modern</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100% хлопок 130 г/м2 </t>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2662.59</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/66949</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>шоколадно-коричневая</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>440</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2662.80</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/36171</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>желтая</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>440</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13</v>
+      </c>
+      <c r="M19" t="n">
+        <v>23</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2662.88</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/66957</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>желтая (лимонная)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>440</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>16</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>31</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2662.94</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/49827</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>зеленое яблоко</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>440</v>
+      </c>
+      <c r="J21" t="n">
+        <v>49</v>
+      </c>
+      <c r="K21" t="n">
+        <v>35</v>
+      </c>
+      <c r="L21" t="n">
+        <v>76</v>
+      </c>
+      <c r="M21" t="n">
+        <v>112</v>
+      </c>
+      <c r="N21" t="n">
+        <v>58</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2662.92</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/52955</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ярко-зеленая</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>440</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" t="n">
+        <v>32</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14</v>
+      </c>
+      <c r="M22" t="n">
+        <v>37</v>
+      </c>
+      <c r="N22" t="n">
+        <v>48</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2662.42</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/5701</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>бирюзовая</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>440</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2662.40</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/49831</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>темно-синяя (navy)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>440</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>41</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2662.44</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/52982</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ярко-синяя (royal)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>440</v>
+      </c>
+      <c r="J25" t="n">
+        <v>28</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12</v>
+      </c>
+      <c r="L25" t="n">
+        <v>17</v>
+      </c>
+      <c r="M25" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2662.77</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/49828</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>темно-фиолетовая</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>440</v>
+      </c>
+      <c r="J26" t="n">
+        <v>113</v>
+      </c>
+      <c r="K26" t="n">
+        <v>78</v>
+      </c>
+      <c r="L26" t="n">
+        <v>47</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2662.56</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/5647</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>розовая орхидея</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>440</v>
+      </c>
+      <c r="J27" t="n">
+        <v>16</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>50</v>
+      </c>
+      <c r="M27" t="n">
+        <v>30</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2662.57</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/49829</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ярко-розовая (фуксия)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>440</v>
+      </c>
+      <c r="J28" t="n">
+        <v>41</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2662.50</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/5667</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>красная</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>440</v>
+      </c>
+      <c r="J29" t="n">
+        <v>18</v>
+      </c>
+      <c r="K29" t="n">
+        <v>18</v>
+      </c>
+      <c r="L29" t="n">
+        <v>12</v>
+      </c>
+      <c r="M29" t="n">
+        <v>30</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2662.30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Промо футболки</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Футболка женская Miss 150, белая</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/20176</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>черная</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>440</v>
+      </c>
+      <c r="J30" t="n">
+        <v>709</v>
+      </c>
+      <c r="K30" t="n">
+        <v>707</v>
+      </c>
+      <c r="L30" t="n">
+        <v>444</v>
+      </c>
+      <c r="M30" t="n">
+        <v>253</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,70 +465,10 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>Описание</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>XXL</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Описание</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>Материалы</t>
         </is>
@@ -537,1537 +477,5286 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1832.60</t>
+          <t>12449.10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Подарки на День энергетика 22 декабря</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
+          <t>Рюкзак-мешок Melango, серый</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/2947</t>
+          <t>https://gifts.ru/id/173206</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>белая</t>
+          <t>серый</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>317</v>
-      </c>
-      <c r="J2" t="n">
-        <v>103</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>379</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1816</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Компактный рюкзак с регулируемыми лямками и ручкой-петлей.Объем 10 литров. Выдерживает нагрузку до 3 кг.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1832.50</t>
+          <t>12449.50</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Подарки на День энергетика 22 декабря</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
+          <t>Рюкзак-мешок Melango, серый</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/2955</t>
+          <t>https://gifts.ru/id/173208</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>красная</t>
+          <t>красный</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>396</v>
-      </c>
-      <c r="J3" t="n">
-        <v>406</v>
-      </c>
-      <c r="K3" t="n">
-        <v>383</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>379</v>
+      </c>
+      <c r="H3" t="n">
+        <v>993</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Компактный рюкзак с регулируемыми лямками и ручкой-петлей.Объем 10 литров. Выдерживает нагрузку до 3 кг.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1832.89</t>
+          <t>12449.12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Подарки на День энергетика 22 декабря</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
+          <t>Рюкзак-мешок Melango, серый</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/2972</t>
+          <t>https://gifts.ru/id/207337</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>лимонно-желтая</t>
+          <t>коричневый</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>400</v>
-      </c>
-      <c r="J4" t="n">
-        <v>51</v>
-      </c>
-      <c r="K4" t="n">
-        <v>147</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>379</v>
+      </c>
+      <c r="H4" t="n">
+        <v>992</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Компактный рюкзак с регулируемыми лямками и ручкой-петлей.Объем 10 литров. Выдерживает нагрузку до 3 кг.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1832.94</t>
+          <t>12449.90</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Подарки на День энергетика 22 декабря</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
+          <t>Рюкзак-мешок Melango, серый</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/49821</t>
+          <t>https://gifts.ru/id/207335</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>зеленое яблоко</t>
+          <t>зеленый</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>396</v>
-      </c>
-      <c r="J5" t="n">
-        <v>109</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>379</v>
+      </c>
+      <c r="H5" t="n">
+        <v>996</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Компактный рюкзак с регулируемыми лямками и ручкой-петлей.Объем 10 литров. Выдерживает нагрузку до 3 кг.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1832.44</t>
+          <t>12449.40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Подарки на День энергетика 22 декабря</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
+          <t>Рюкзак-мешок Melango, серый</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/49826</t>
+          <t>https://gifts.ru/id/173207</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ярко-синяя (royal)</t>
+          <t>синий</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>396</v>
-      </c>
-      <c r="J6" t="n">
-        <v>29</v>
-      </c>
-      <c r="K6" t="n">
-        <v>47</v>
-      </c>
-      <c r="L6" t="n">
-        <v>54</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>379</v>
+      </c>
+      <c r="H6" t="n">
+        <v>654</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Компактный рюкзак с регулируемыми лямками и ручкой-петлей.Объем 10 литров. Выдерживает нагрузку до 3 кг.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1832.57</t>
+          <t>12449.44</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Подарки на День энергетика 22 декабря</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
+          <t>Рюкзак-мешок Melango, серый</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/49825</t>
+          <t>https://gifts.ru/id/207336</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ярко-розовая (фуксия)</t>
+          <t>темно-синий</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>396</v>
-      </c>
-      <c r="J7" t="n">
-        <v>22</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>379</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1341</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Компактный рюкзак с регулируемыми лямками и ручкой-петлей.Объем 10 литров. Выдерживает нагрузку до 3 кг.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1832.30</t>
+          <t>12449.30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Подарки на День энергетика 22 декабря</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Футболка женская Melrose 150 с глубоким вырезом, белая</t>
+          <t>Рюкзак-мешок Melango, серый</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/2980</t>
+          <t>https://gifts.ru/id/173204</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>черная</t>
+          <t>черный</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>396</v>
-      </c>
-      <c r="L8" t="n">
-        <v>57</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболка женственного приталенного силуэта с американской проймой и глубоким вырезом, отделанным обтачкой из джерси. Двойная прострочка на вороте спереди, на рукавах и по низу. </t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>379</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3422</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Компактный рюкзак с регулируемыми лямками и ручкой-петлей.Объем 10 литров. Выдерживает нагрузку до 3 кг.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16121.60</t>
+          <t>12349.30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Промо одежда</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Футболка мужская Simpler, белая</t>
+          <t>Рюкзак Crow, черный</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/174580</t>
+          <t>https://gifts.ru/id/170272</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>белая</t>
+          <t>черный</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>320</v>
-      </c>
-      <c r="I9" t="n">
-        <v>316</v>
-      </c>
-      <c r="J9" t="n">
-        <v>119</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Кроеная футболка приталенного силуэта. Укрепляющая тесьма по вороту. Круглый вырез отделан резинкой. Лейбл производителя в боковом шве изнутри, в шве горловины — только бирка с размером, что позволяет вам нанести свой логотип.</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 145 г/м²; джерси</t>
+        <v>399</v>
+      </c>
+      <c r="H9" t="n">
+        <v>542</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Вместительный, легкий и компактный рюкзак.Объем 10 лВыдерживает нагрузку до 3 кг Основное отделение на молнииНаружный карман на молнии на задней стенкеМягкая спинкаПоставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>полиэстер, 210D</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16122.30</t>
+          <t>12349.50</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Футболка женская Simpler, черная</t>
+          <t>Рюкзак Crow, черный</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/174594</t>
+          <t>https://gifts.ru/id/170271</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>черная</t>
+          <t>красный</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>320</v>
-      </c>
-      <c r="J10" t="n">
-        <v>112</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>63</v>
-      </c>
-      <c r="N10" t="n">
-        <v>33</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Классическая футболка приталенного кроя. Круглый вырез отделан резинкой. Укрепляющая тесьма по вороту.Лейбл производителя в боковом шве изнутри, в шве горловины — только бирка с размером, что позволяет вам нанести свой логотип.</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 145 г/м²; джерси</t>
+        <v>399</v>
+      </c>
+      <c r="H10" t="n">
+        <v>291</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Вместительный, легкий и компактный рюкзак.Объем 10 лВыдерживает нагрузку до 3 кг Основное отделение на молнииНаружный карман на молнии на задней стенкеМягкая спинкаПоставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>полиэстер, 210D</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16122.60</t>
+          <t>12349.40</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Футболка женская Simpler, черная</t>
+          <t>Рюкзак Crow, черный</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/174587</t>
+          <t>https://gifts.ru/id/170269</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>белая</t>
+          <t>синий</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>320</v>
-      </c>
-      <c r="J11" t="n">
-        <v>49</v>
-      </c>
-      <c r="K11" t="n">
-        <v>81</v>
-      </c>
-      <c r="L11" t="n">
-        <v>82</v>
-      </c>
-      <c r="M11" t="n">
-        <v>91</v>
-      </c>
-      <c r="N11" t="n">
-        <v>35</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Классическая футболка приталенного кроя. Круглый вырез отделан резинкой. Укрепляющая тесьма по вороту.Лейбл производителя в боковом шве изнутри, в шве горловины — только бирка с размером, что позволяет вам нанести свой логотип.</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 145 г/м²; джерси</t>
+        <v>399</v>
+      </c>
+      <c r="H11" t="n">
+        <v>411</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Вместительный, легкий и компактный рюкзак.Объем 10 лВыдерживает нагрузку до 3 кг Основное отделение на молнииНаружный карман на молнии на задней стенкеМягкая спинкаПоставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>полиэстер, 210D</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6674.40</t>
+          <t>71393.10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Футболка женская Unit Stretch 190, темно-синяя</t>
+          <t>Рюкзак-мешок Hard Work</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/60053</t>
+          <t>https://gifts.ru/id/195880</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>темно-синяя</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>320</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Кроеная футболка стретч, ворот отделан резинкой 1x1 с эластаном, двойная отстрочка плечевых швов. Добавление эластана делает футболку более приятной к телу, улучшает посадку по фигуре, а также облегчает нанесение изображения на ткань.</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>хлопок 95%; эластан 5%, плотность 190 г/м²; джерси</t>
+        <v>479</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1550</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Суровая                                                  брутальность,                                                  приправленная иронией,                                                  — так можно емко                                                  охарактеризовать                                                  визуальный стиль и                                                  посыл Hard Work. Бренд                                                  посвящен трудоголикам                                                  и энтузиастам, которые                                                  не жалеют сил на                                                  любимой и, да,                                                  непременно сложной                                                  работе. Что это за                                                  работа, уже не так                                                  важно, ведь и офисный                                                  менеджер, и работник цеха имеют полное                                                  право считать ее                                                  тяжелой. Предметы                                                  коллекции помогут                                                  работать продуктивно —                                                  или же расслабиться                                                  после тяжелой работы. Hard                                                  Work. Покой нам только                                                  снится.Компактный рюкзак с регулируемыми лямками. Объем 8 л.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 300D</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6674.44</t>
+          <t>12199.33</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Футболка женская Unit Stretch 190, темно-синяя</t>
+          <t>Рюкзак Nock, черный с черной стропой</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/60028</t>
+          <t>https://gifts.ru/id/170152</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ярко-синяя</t>
+          <t>черный с черной стропой</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>320</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Кроеная футболка стретч, ворот отделан резинкой 1x1 с эластаном, двойная отстрочка плечевых швов. Добавление эластана делает футболку более приятной к телу, улучшает посадку по фигуре, а также облегчает нанесение изображения на ткань.</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>хлопок 95%; эластан 5%, плотность 190 г/м²; джерси</t>
+        <v>490</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Объем 12 л.Регулируемые лямки из стропы.Способ обработки внутреннего шва: оверлок.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>хлопок, 240 г/м²</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14667.60</t>
+          <t>12199.36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Промо одежда</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Футболка унисекс Paint Tee, белая</t>
+          <t>Рюкзак Nock, черный с черной стропой</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/213501</t>
+          <t>https://gifts.ru/id/170154</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>белая</t>
+          <t>черный с белой стропой</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>380</v>
-      </c>
-      <c r="O14" t="n">
-        <v>126</v>
-      </c>
-      <c r="P14" t="n">
-        <v>111</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>160</v>
-      </c>
-      <c r="R14" t="n">
-        <v>64</v>
-      </c>
-      <c r="S14" t="n">
-        <v>50</v>
-      </c>
-      <c r="T14" t="n">
-        <v>74</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Футболка Paint Tee из гладкого полиэстера с комфортной изнанкой, напоминающей натуральный хлопок, отлично подходит для сублимационной печати.Кроеная футболка унисекс прямого силуэта. Плечевые швы усилены отстрочкой. Круглый вырез отделан кантом из основного материала.</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>полиэстер 100%, плотность 160 г/м²; джерси</t>
+        <v>490</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Объем 12 л.Регулируемые лямки из стропы.Способ обработки внутреннего шва: оверлок.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>хлопок, 240 г/м²</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2662.60</t>
+          <t>12199.35</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак Nock, черный с черной стропой</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/5636</t>
+          <t>https://gifts.ru/id/170155</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>белая</t>
+          <t>черный с красной стропой</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>380</v>
-      </c>
-      <c r="J15" t="n">
-        <v>436</v>
-      </c>
-      <c r="K15" t="n">
-        <v>485</v>
-      </c>
-      <c r="L15" t="n">
-        <v>137</v>
-      </c>
-      <c r="M15" t="n">
-        <v>161</v>
-      </c>
-      <c r="N15" t="n">
-        <v>35</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>490</v>
+      </c>
+      <c r="H15" t="n">
+        <v>44</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Объем 12 л.Регулируемые лямки из стропы.Способ обработки внутреннего шва: оверлок.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>хлопок, 240 г/м²</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2662.11</t>
+          <t>12199.38</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак Nock, черный с черной стропой</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/50322</t>
+          <t>https://gifts.ru/id/170156</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>серый меланж</t>
+          <t>черный с синей стропой</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>440</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16</v>
-      </c>
-      <c r="K16" t="n">
-        <v>19</v>
-      </c>
-      <c r="L16" t="n">
-        <v>19</v>
-      </c>
-      <c r="M16" t="n">
-        <v>16</v>
-      </c>
-      <c r="N16" t="n">
-        <v>40</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>490</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Объем 12 л.Регулируемые лямки из стропы.Способ обработки внутреннего шва: оверлок.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>хлопок, 240 г/м²</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2662.10</t>
+          <t>12348.11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак-мешок Manifest из светоотражающей ткани, серый</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/66927</t>
+          <t>https://gifts.ru/id/170267</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>темно-серая</t>
+          <t>серый</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>440</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>490</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1904</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Световозвращающие элементы позволяют быть замеченным в темное время суток. Это особенно важно для безопасности дорожного движения. Рюкзак Manifest полностью изготовлен из светоотражающей ткани — вас будет видно издалека.Объем 10 лОсновное отделение на шнурках-затяжкахУсиленное крепление шнурковСветоотражающая тканьВодоотталкивающая пропиткаПоставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>полиэстер 35%; хлопок 65%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2662.59</t>
+          <t>13779.11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Детский рюкзак-мешок Manifest из светоотражающей ткани, серый</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/66949</t>
+          <t>https://gifts.ru/id/191785</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>шоколадно-коричневая</t>
+          <t>серый</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>440</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>14</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>490</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1342</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Световозвращающие элементы позволяют быть замеченным в темное время суток. Это особенно важно для безопасности дорожного движения. Рюкзак Manifest полностью изготовлен из светоотражающей ткани — детей будет видно издалека.Основное отделение на шнурках-затяжках.Дополнительные плечевые фиксаторы для равномерного распределения нагрузки.Для детей 3–7 лет.Поставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>полиэстер 35%; хлопок 65%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2662.80</t>
+          <t>12644</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Корпоративные подарки на Новый год</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак детский Toffee</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/36171</t>
+          <t>https://gifts.ru/id/171461</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>желтая</t>
+          <t>Toffee</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>440</v>
-      </c>
-      <c r="J19" t="n">
-        <v>14</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>13</v>
-      </c>
-      <c r="M19" t="n">
-        <v>23</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>500</v>
+      </c>
+      <c r="H19" t="n">
+        <v>258</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Рюкзачок в виде символа нового года для упаковки сладких подарков — это старая добрая классика, бессменно завоевывающая сердца малышей.Бычок Toffee станет приятным новогодним сюрпризом и обязательно пригодится в дальнейшем: ведь так здорово знать, что у тебя за спиной такой милый спутник!Идея и дизайн: ООО «Проект 111»Исключительное право: ООО «Проект 111»</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>полиэстер 100%; верх - велюр</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2662.88</t>
+          <t>71394.10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак-мешок с карманом Hard Work</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/66957</t>
+          <t>https://gifts.ru/id/195882</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>желтая (лимонная)</t>
+          <t>Work</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>440</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>16</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>31</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>550</v>
+      </c>
+      <c r="H20" t="n">
+        <v>392</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Суровая                                                  брутальность,                                                  приправленная иронией,                                                  — так можно емко                                                  охарактеризовать                                                  визуальный стиль и                                                  посыл Hard Work. Бренд                                                  посвящен трудоголикам                                                  и энтузиастам, которые                                                  не жалеют сил на                                                  любимой и, да,                                                  непременно сложной                                                  работе. Что это за                                                  работа, уже не так                                                  важно, ведь и офисный                                                  менеджер, и работник цеха имеют полное                                                  право считать ее                                                  тяжелой. Предметы                                                  коллекции помогут                                                  работать продуктивно —                                                  или же расслабиться                                                  после тяжелой работы. Hard                                                  Work. Покой нам только                                                  снится.Объем 16 лВместительное центральное отделениеНаружный карман на молнии на лицевой частиНаружный боковой карман на молнииВеревочные лямки</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 300D</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2662.94</t>
+          <t>12672.20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Складной рюкзак Barcelona, оранжевый</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/49827</t>
+          <t>https://gifts.ru/id/175600</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>зеленое яблоко</t>
+          <t>оранжевый</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>440</v>
-      </c>
-      <c r="J21" t="n">
-        <v>49</v>
-      </c>
-      <c r="K21" t="n">
-        <v>35</v>
-      </c>
-      <c r="L21" t="n">
-        <v>76</v>
-      </c>
-      <c r="M21" t="n">
-        <v>112</v>
-      </c>
-      <c r="N21" t="n">
-        <v>58</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>590</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Складной рюкзак Barcelona выполнен из ткани рипстоп и не займет много места в багаже или в шкафу.Объем 5 литровВыдерживает нагрузку до 5 кгПоставляется в развернутом видеОсновное отделение на молнииПередний карман на молнииКомпактно складывается и не занимает много места</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>полиэстер, 210D, рипстоп</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2662.92</t>
+          <t>12672.50</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Складной рюкзак Barcelona, оранжевый</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/52955</t>
+          <t>https://gifts.ru/id/175598</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ярко-зеленая</t>
+          <t>красный</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>440</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10</v>
-      </c>
-      <c r="K22" t="n">
-        <v>32</v>
-      </c>
-      <c r="L22" t="n">
-        <v>14</v>
-      </c>
-      <c r="M22" t="n">
-        <v>37</v>
-      </c>
-      <c r="N22" t="n">
-        <v>48</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>590</v>
+      </c>
+      <c r="H22" t="n">
+        <v>86</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Складной рюкзак Barcelona выполнен из ткани рипстоп и не займет много места в багаже или в шкафу.Объем 5 литровВыдерживает нагрузку до 5 кгПоставляется в развернутом видеОсновное отделение на молнииПередний карман на молнииКомпактно складывается и не занимает много места</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>полиэстер, 210D, рипстоп</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2662.42</t>
+          <t>12672.90</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Складной рюкзак Barcelona, оранжевый</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/5701</t>
+          <t>https://gifts.ru/id/175599</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>бирюзовая</t>
+          <t>салатовый</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>440</v>
-      </c>
-      <c r="J23" t="n">
-        <v>21</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10</v>
-      </c>
-      <c r="L23" t="n">
-        <v>10</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
+        <v>590</v>
+      </c>
+      <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Складной рюкзак Barcelona выполнен из ткани рипстоп и не займет много места в багаже или в шкафу.Объем 5 литровВыдерживает нагрузку до 5 кгПоставляется в развернутом видеОсновное отделение на молнииПередний карман на молнииКомпактно складывается и не занимает много места</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>полиэстер, 210D, рипстоп</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2662.40</t>
+          <t>12672.40</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Складной рюкзак Barcelona, оранжевый</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/49831</t>
+          <t>https://gifts.ru/id/175597</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>темно-синяя (navy)</t>
+          <t>синий</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>440</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>41</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>590</v>
+      </c>
+      <c r="H24" t="n">
+        <v>568</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Складной рюкзак Barcelona выполнен из ткани рипстоп и не займет много места в багаже или в шкафу.Объем 5 литровВыдерживает нагрузку до 5 кгПоставляется в развернутом видеОсновное отделение на молнииПередний карман на молнииКомпактно складывается и не занимает много места</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>полиэстер, 210D, рипстоп</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2662.44</t>
+          <t>12672.30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Складной рюкзак Barcelona, оранжевый</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/52982</t>
+          <t>https://gifts.ru/id/175595</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ярко-синяя (royal)</t>
+          <t>черный</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>440</v>
-      </c>
-      <c r="J25" t="n">
-        <v>28</v>
-      </c>
-      <c r="K25" t="n">
-        <v>12</v>
-      </c>
-      <c r="L25" t="n">
-        <v>17</v>
-      </c>
-      <c r="M25" t="n">
-        <v>10</v>
-      </c>
-      <c r="N25" t="n">
-        <v>10</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>590</v>
+      </c>
+      <c r="H25" t="n">
+        <v>47</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Складной рюкзак Barcelona выполнен из ткани рипстоп и не займет много места в багаже или в шкафу.Объем 5 литровВыдерживает нагрузку до 5 кгПоставляется в развернутом видеОсновное отделение на молнииПередний карман на молнииКомпактно складывается и не занимает много места</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>полиэстер, 210D, рипстоп</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2662.77</t>
+          <t>12350.30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак Bale, черный</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/49828</t>
+          <t>https://gifts.ru/id/170273</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>темно-фиолетовая</t>
+          <t>черный</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>440</v>
-      </c>
-      <c r="J26" t="n">
-        <v>113</v>
-      </c>
-      <c r="K26" t="n">
-        <v>78</v>
-      </c>
-      <c r="L26" t="n">
-        <v>47</v>
-      </c>
-      <c r="M26" t="n">
-        <v>9</v>
-      </c>
-      <c r="N26" t="n">
-        <v>7</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>649</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2042</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Емкость 7 литровВыдерживает нагрузку до 2 кгОсновное отделение на молнииНаружный карман на молнииРучка для переноскиМягкая спинкаПоставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2662.56</t>
+          <t>12350.50</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак Bale, черный</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/5647</t>
+          <t>https://gifts.ru/id/170276</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>розовая орхидея</t>
+          <t>красный</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>440</v>
-      </c>
-      <c r="J27" t="n">
-        <v>16</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>50</v>
-      </c>
-      <c r="M27" t="n">
-        <v>30</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>649</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2616</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Емкость 7 литровВыдерживает нагрузку до 2 кгОсновное отделение на молнииНаружный карман на молнииРучка для переноскиМягкая спинкаПоставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2662.57</t>
+          <t>12350.40</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак Bale, черный</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/49829</t>
+          <t>https://gifts.ru/id/170275</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ярко-розовая (фуксия)</t>
+          <t>синий</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>440</v>
-      </c>
-      <c r="J28" t="n">
-        <v>41</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>649</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2206</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Емкость 7 литровВыдерживает нагрузку до 2 кгОсновное отделение на молнииНаружный карман на молнииРучка для переноскиМягкая спинкаПоставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2662.50</t>
+          <t>11594.10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак Reliable, серый</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/5667</t>
+          <t>https://gifts.ru/id/146276</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>красная</t>
+          <t>серый</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>440</v>
-      </c>
-      <c r="J29" t="n">
-        <v>18</v>
-      </c>
-      <c r="K29" t="n">
-        <v>18</v>
-      </c>
-      <c r="L29" t="n">
-        <v>12</v>
-      </c>
-      <c r="M29" t="n">
-        <v>30</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+        <v>699</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2938</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Выдерживает нагрузку до 8 кг.Объем 8 лВместительное центральное отделение с герметичным клапаномТкань с водоотталкивающим покрытиемНаружный карман на молнииРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2662.30</t>
+          <t>13920.10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Промо футболки</t>
+          <t>Сумки</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Футболка женская Miss 150, белая</t>
+          <t>Рюкзак Base, серый</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://gifts.ru/id/20176</t>
+          <t>https://gifts.ru/id/206694</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>черная</t>
+          <t>серый</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>440</v>
-      </c>
-      <c r="J30" t="n">
-        <v>709</v>
-      </c>
-      <c r="K30" t="n">
-        <v>707</v>
-      </c>
-      <c r="L30" t="n">
-        <v>444</v>
-      </c>
-      <c r="M30" t="n">
-        <v>253</v>
-      </c>
-      <c r="N30" t="n">
+        <v>699</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3534</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак с мягкими уплотненными лямками и спинкой.Емкость 10 лВыдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13920.50</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Рюкзак Base, серый</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/206700</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>красный</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>699</v>
+      </c>
+      <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Футболки Miss отлично сочетаются с футболками Regent из коллекции Sols. В отличие от футболок в стиле унисекс, они приталенные, что придает фигуре женственность и изящество. Кроеная футболка с боковыми швами и тонким воротом из джерси. Укрепляющая тесьма по вороту. </t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>хлопок 100%, плотность 150 г/м²; джерси</t>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак с мягкими уплотненными лямками и спинкой.Емкость 10 лВыдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>13920.20</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Рюкзак Base, серый</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/206696</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>светло-оранжевый</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>699</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1904</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак с мягкими уплотненными лямками и спинкой.Емкость 10 лВыдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13920.90</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Рюкзак Base, серый</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/206701</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>зеленый</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>699</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1768</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак с мягкими уплотненными лямками и спинкой.Емкость 10 лВыдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>13920.40</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Рюкзак Base, серый</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/206698</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>699</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1691</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак с мягкими уплотненными лямками и спинкой.Емкость 10 лВыдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>13920.44</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Рюкзак Base, серый</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/206699</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>темно-синий</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>699</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1742</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак с мягкими уплотненными лямками и спинкой.Емкость 10 лВыдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>13920.30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Рюкзак Base, серый</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/206697</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>699</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3365</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак с мягкими уплотненными лямками и спинкой.Емкость 10 лВыдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3428.40</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Рюкзак Unit Base, синий</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/98522</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>699</v>
+      </c>
+      <c r="H37" t="n">
+        <v>273</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак.Емкость 10 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3428.50</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Рюкзак Unit Base, синий</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/98526</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>красный</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>699</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1741</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак.Емкость 10 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3428.90</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Рюкзак Unit Base, синий</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/98524</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>зеленый</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>699</v>
+      </c>
+      <c r="H39" t="n">
+        <v>305</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак.Емкость 10 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3428.44</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Рюкзак Unit Base, синий</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/200686</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>темно-синий</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>699</v>
+      </c>
+      <c r="H40" t="n">
+        <v>593</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Базовый городской рюкзак.Емкость 10 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>13423.20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Рюкзак-мешок Manifest Color из светоотражающей ткани, оранжевый</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/195914</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>оранжевый</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>739</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1461</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Световозвращающие элементы позволяют быть замеченным в темное время суток. Это особенно важно для безопасности дорожного движения. Рюкзак Manifest Color полностью изготовлен из светоотражающей ткани — вас будет видно издалека.Объем 10 лОсновное отделение на шнурках-затяжкахУсиленное крепление шнурковСветоотражающая тканьВодоотталкивающая пропитка</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>хлопок 65%; полиэстер 35%, плотность 260 г/м²</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13423.89</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Рюкзак-мешок Manifest Color из светоотражающей ткани, оранжевый</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/195913</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>желтый неон</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>739</v>
+      </c>
+      <c r="H42" t="n">
+        <v>485</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Световозвращающие элементы позволяют быть замеченным в темное время суток. Это особенно важно для безопасности дорожного движения. Рюкзак Manifest Color полностью изготовлен из светоотражающей ткани — вас будет видно издалека.Объем 10 лОсновное отделение на шнурках-затяжкахУсиленное крепление шнурковСветоотражающая тканьВодоотталкивающая пропитка</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>хлопок 65%; полиэстер 35%, плотность 260 г/м²</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>13423.40</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Рюкзак-мешок Manifest Color из светоотражающей ткани, оранжевый</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/195911</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>739</v>
+      </c>
+      <c r="H43" t="n">
+        <v>407</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Световозвращающие элементы позволяют быть замеченным в темное время суток. Это особенно важно для безопасности дорожного движения. Рюкзак Manifest Color полностью изготовлен из светоотражающей ткани — вас будет видно издалека.Объем 10 лОсновное отделение на шнурках-затяжкахУсиленное крепление шнурковСветоотражающая тканьВодоотталкивающая пропитка</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>хлопок 65%; полиэстер 35%, плотность 260 г/м²</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>17312.01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Kiddo, синий с голубым</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/188554</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>синий с голубым</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>763</v>
+      </c>
+      <c r="H44" t="n">
+        <v>838</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Детский рюкзак Kiddo можно взять с собой и на прогулку, и в школу, и в путешествие. Несмотря на свои компактные размеры, рюкзачок очень вместительный: в главном отделении легко поместятся канцелярские принадлежности и тетради, удобные боковые кармашки подходят для бутылки с водой, а во внешнем небольшом отделении можно хранить разные мелочи. Рюкзак имеет регулируемые лямки.Поставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10875.66</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Рюкзак холщовый Discovery Bag, неокрашенный</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/144317</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>неокрашенный</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>790</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2168</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Емкость 8 литровВыдерживает нагрузку до 8 кгРегулируемые плечевые лямкиРучки для переноскиВнутренний карман на молнииУплотняющая тесьма по краюСпособ обработки внутреннего шва: окантовочная лента.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>хлопок, плотность 280 г/м²</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>13296.30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Рюкзак Bertly, черный</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/192193</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>790</v>
+      </c>
+      <c r="H46" t="n">
+        <v>162</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Емкость 9 литровВыдерживает нагрузку до 6,5 кгОсновное отделение на молнииПередний карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>13296.50</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Рюкзак Bertly, черный</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/192195</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>красный</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>790</v>
+      </c>
+      <c r="H47" t="n">
+        <v>89</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Емкость 9 литровВыдерживает нагрузку до 6,5 кгОсновное отделение на молнииПередний карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>13296.90</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Рюкзак Bertly, черный</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/192196</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>зеленое яблоко</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>790</v>
+      </c>
+      <c r="H48" t="n">
+        <v>108</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Емкость 9 литровВыдерживает нагрузку до 6,5 кгОсновное отделение на молнииПередний карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>13296.99</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Рюкзак Bertly, черный</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/206758</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>зеленый</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>790</v>
+      </c>
+      <c r="H49" t="n">
+        <v>23</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Емкость 9 литровВыдерживает нагрузку до 6,5 кгОсновное отделение на молнииПередний карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>13296.40</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Рюкзак Bertly, черный</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/201897</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>790</v>
+      </c>
+      <c r="H50" t="n">
+        <v>49</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Емкость 9 литровВыдерживает нагрузку до 6,5 кгОсновное отделение на молнииПередний карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6337.20</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Рюкзак Unit Easy, оранжевый</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/37339</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>оранжевый</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>790</v>
+      </c>
+      <c r="H51" t="n">
+        <v>17</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Объем 12 литров.Выдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииДва боковых наружных кармана из сеткиВозможен небольшой разнотон в поставке.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>полиэстер, 600 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6337.50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Рюкзак Unit Easy, оранжевый</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/37337</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>красный</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>790</v>
+      </c>
+      <c r="H52" t="n">
+        <v>279</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Объем 12 литров.Выдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииДва боковых наружных кармана из сеткиВозможен небольшой разнотон в поставке.</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>полиэстер, 600 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6337.90</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Рюкзак Unit Easy, оранжевый</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/91132</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>зеленый</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>790</v>
+      </c>
+      <c r="H53" t="n">
+        <v>666</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Объем 12 литров.Выдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииДва боковых наружных кармана из сеткиВозможен небольшой разнотон в поставке.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>полиэстер, 600 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>6337.44</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Рюкзак Unit Easy, оранжевый</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/91135</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ярко-синий</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>790</v>
+      </c>
+      <c r="H54" t="n">
+        <v>441</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Объем 12 литров.Выдерживает нагрузку до 10 кгБольшое центральное отделениеНаружный карман на молнииДва боковых наружных кармана из сеткиВозможен небольшой разнотон в поставке.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>полиэстер, 600 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12678.40</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Рюкзак Niels, черный с синим</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/175593</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>черный с синим</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>890</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Основное отделение на молнииПередний карман на молнииУплотненная спинкаРегулируемые лямкиВыдерживает нагрузку до 7 кг</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>71486.14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Рюкзак Blue Marble</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/198365</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Marble</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>890</v>
+      </c>
+      <c r="H56" t="n">
+        <v>903</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Астронавты говорят, что издалека наша планета похожа на голубой мраморный шарик. Удивительно, что в него вмещаются люди, животные, леса и моря. Blue Marble — рюкзак с космической вместимостью.Объем 10 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>71486.56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Рюкзак Blue Marble</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/198367</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Marble</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>890</v>
+      </c>
+      <c r="H57" t="n">
+        <v>449</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Розовый мрамор долговечен, податлив в обработке и хорошо сочетается практически с любыми материалами и цветами в интерьере. То же самое можно сказать и про рюкзак Pink Marble — прочный, вместительный и прекрасно дополняющий образ. Весьма практичный аксессуар, который можно приравнять к украшению.Объем 10 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>71494.30</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Рюкзак Polka Dot</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/198384</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Dot</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>890</v>
+      </c>
+      <c r="H58" t="n">
+        <v>463</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Узор в горошек — нестареющая классика. Сочетание элегантности и чувственности с легкой наивностью и озорством делает стиль полька дот («в горошек») поистине любимым. Столь необходимый аксессуар, который всегда в тренде.Объем 10 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>71495.50</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Рюкзак Colorblast</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/198386</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Colorblast</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>890</v>
+      </c>
+      <c r="H59" t="n">
+        <v>184</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Мир не был бы таким прекрасным, если бы не то буйство красок, которыми он наделен: всполохи костра, радуга, северное сияние, драгоценные камни, разнообразие окраса флоры и фауны. Colorblast — разноцветный рюкзак для яркой и насыщенной жизни!Объем 10 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделениеНаружный карман на молнииАнатомические лямки</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>11662.10</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Rider Kids, серый</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/164424</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>919</v>
+      </c>
+      <c r="H60" t="n">
+        <v>68</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Емкость 9 литров.Большое центральное отделение на молнииНаружный карман на молнииУсиленные регулируемые лямкиЯрлык для подписи имени</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>11662.50</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Rider Kids, серый</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/30301</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>красный</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>919</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6908</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Емкость 9 литров.Большое центральное отделение на молнииНаружный карман на молнииУсиленные регулируемые лямкиЯрлык для подписи имени</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>11662.20</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Rider Kids, серый</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/30302</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>оранжевый</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>919</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2083</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Емкость 9 литров.Большое центральное отделение на молнииНаружный карман на молнииУсиленные регулируемые лямкиЯрлык для подписи имени</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>11662.94</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Rider Kids, серый</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/30303</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>зеленое яблоко</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>919</v>
+      </c>
+      <c r="H63" t="n">
+        <v>70</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Емкость 9 литров.Большое центральное отделение на молнииНаружный карман на молнииУсиленные регулируемые лямкиЯрлык для подписи имени</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>11662.14</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Rider Kids, серый</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/30305</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>голубой</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>919</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4975</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Емкость 9 литров.Большое центральное отделение на молнииНаружный карман на молнииУсиленные регулируемые лямкиЯрлык для подписи имени</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>11662.40</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Rider Kids, серый</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/30304</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>кобальт (темно-синий)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>919</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2384</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Емкость 9 литров.Большое центральное отделение на молнииНаружный карман на молнииУсиленные регулируемые лямкиЯрлык для подписи имени</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>11662.44</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Rider Kids, серый</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/164425</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ярко-синий</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>919</v>
+      </c>
+      <c r="H66" t="n">
+        <v>80</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Емкость 9 литров.Большое центральное отделение на молнииНаружный карман на молнииУсиленные регулируемые лямкиЯрлык для подписи имени</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>11662.57</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Rider Kids, серый</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/40396</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ярко-розовый (фуксия)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>919</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5131</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Емкость 9 литров.Большое центральное отделение на молнииНаружный карман на молнииУсиленные регулируемые лямкиЯрлык для подписи имени</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>11662.30</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Rider Kids, серый</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/30300</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>919</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3110</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Емкость 9 литров.Большое центральное отделение на молнииНаружный карман на молнииУсиленные регулируемые лямкиЯрлык для подписи имени</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>13820.11</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Рюкзак Sensa, серый с бежевым</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/204068</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>серый с бежевым</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>949</v>
+      </c>
+      <c r="H69" t="n">
+        <v>923</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Стильный двухцветный городской рюкзак с мягкой уплотненной спинкой. Квадратный верх не только добавляет рюкзаку стиля, но и увеличивает его вместимость.Емкость 12 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделение с вместительным внутренним карманом на спинкеНаружный карман на молнииСпинка с мягким уплотнителем</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>13820.19</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Рюкзак Sensa, серый с бежевым</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/204067</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>серый с салатовым</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>949</v>
+      </c>
+      <c r="H70" t="n">
+        <v>718</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Стильный двухцветный городской рюкзак с мягкой уплотненной спинкой. Квадратный верх не только добавляет рюкзаку стиля, но и увеличивает его вместимость.Емкость 12 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделение с вместительным внутренним карманом на спинкеНаружный карман на молнииСпинка с мягким уплотнителем</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>13820.14</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Рюкзак Sensa, серый с бежевым</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/204065</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>серый с синим</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>949</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1336</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Стильный двухцветный городской рюкзак с мягкой уплотненной спинкой. Квадратный верх не только добавляет рюкзаку стиля, но и увеличивает его вместимость.Емкость 12 литров. Выдерживает нагрузку до 10 кг.Большое центральное отделение с вместительным внутренним карманом на спинкеНаружный карман на молнииСпинка с мягким уплотнителем</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3229.10</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Складной рюкзак Wick, серый</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/188662</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>949</v>
+      </c>
+      <c r="H72" t="n">
+        <v>800</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Карман в рюкзаке — обычное дело. А рюкзак в кармане? Складной рюкзак не займет много места в багаже, а при необходимости даст дополнительные 15 литров объема. Вместительный рюкзак, который можно свернуть в компактный мешочек.Петелька из нетканого материала на стальной кнопке позволяет пристегнуть сложенный рюкзак к шлевке или кольцу карабина на рюкзаке или сумке.Ткань с переплетением рипстоп — оптимальное сочетание прочности и легкости.Выдерживает нагрузку до 4 кг</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>полиэстер, 190 D, рипстоп с водоотталкивающей пропиткой</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3229.20</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Складной рюкзак Wick, серый</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/93733</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>оранжевый</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>949</v>
+      </c>
+      <c r="H73" t="n">
+        <v>377</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Карман в рюкзаке — обычное дело. А рюкзак в кармане? Складной рюкзак не займет много места в багаже, а при необходимости даст дополнительные 15 литров объема. Вместительный рюкзак, который можно свернуть в компактный мешочек.Петелька из нетканого материала на стальной кнопке позволяет пристегнуть сложенный рюкзак к шлевке или кольцу карабина на рюкзаке или сумке.Ткань с переплетением рипстоп — оптимальное сочетание прочности и легкости.Выдерживает нагрузку до 4 кг</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>полиэстер, 190 D, рипстоп с водоотталкивающей пропиткой</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3229.42</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Складной рюкзак Wick, серый</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/58703</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>бирюзовый</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>949</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1419</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Карман в рюкзаке — обычное дело. А рюкзак в кармане? Складной рюкзак не займет много места в багаже, а при необходимости даст дополнительные 15 литров объема. Вместительный рюкзак, который можно свернуть в компактный мешочек.Петелька из нетканого материала на стальной кнопке позволяет пристегнуть сложенный рюкзак к шлевке или кольцу карабина на рюкзаке или сумке.Ткань с переплетением рипстоп — оптимальное сочетание прочности и легкости.Выдерживает нагрузку до 4 кг</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>полиэстер, 190 D, рипстоп с водоотталкивающей пропиткой</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>18871.01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Рюкзак на заказ Zaino Net, акрил</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/197638</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>акрил</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>974</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>от 100</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Рюкзак с вывязанным логотипом и индивидуальным рисунком в фирменной цветовой гамме. Такой рюкзак можно использовать для упаковки подарков либо как модный аксессуар.Цвет: выберите цветовое решение по таблице «Актуальные цвета нитей» (на фото).Отправляя запрос, укажите в поле «Примечание» формы заказа следующие данные.Цвета изделия по таблице актуальных цветов (оптимально 2-3 цвета).Приложите к заказу оригинал-макет, выполненный в конструкторе.Этапы изготовления заказа1. Перед запуском заказа вы согласуете тираж, сроки, наличие пряжи, присылаете оригинал-макет в векторном формате.2. Мы запускаем заказ в работу, переводим макет в комбинацию цветных петель, утверждаем созданный программой рисунок в петлях и вяжем тираж.3. Принимаем готовый заказ на склад, проверяем, упаковываем и передаем в доставку.С января по сентябрь включительно вы можете заказать изготовление сигнального образца. Стоимость образца 5 000 рублей.</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>акрил 100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>13291</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Рюкзак Stardust</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/191816</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Stardust</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>990</v>
+      </c>
+      <c r="H76" t="n">
+        <v>442</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Легкий и вместительный рюкзак Stardust с принтом, имитирующим звездное небо. Объем 16 лВыдерживает нагрузку до 7 кгБольшое центральное отделениеНаружный карман на молнииВнутренний карман для документовУплотненная спинкаОтстегивающиеся пуллеры из стропы на карабинах с возможностью кастомизации</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>14720.20</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Рюкзак Tiny Lightweight Casual, оранжевый</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/209768</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>оранжевый</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>990</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Яркий рюкзак с простым и функциональным дизайном, практичный и универсальный. Подходит для учебы, покупок и прогулок, а весит всего 194 грамма.Объем 12 лОтделение на молнииСкрытый наружный карман на молнии2 боковых карманаРегулируемые мягкие лямкиВес 194 г</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>14720.40</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Рюкзак Tiny Lightweight Casual, оранжевый</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/209766</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>990</v>
+      </c>
+      <c r="H78" t="n">
+        <v>100</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Яркий рюкзак с простым и функциональным дизайном, практичный и универсальный. Подходит для учебы, покупок и прогулок, а весит всего 194 грамма.Объем 12 лОтделение на молнииСкрытый наружный карман на молнии2 боковых карманаРегулируемые мягкие лямкиВес 194 г</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>15998.11</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Рюкзак детский Manifest из светоотражающей ткани, серый</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/201511</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>990</v>
+      </c>
+      <c r="H79" t="n">
+        <v>357</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Световозвращающие элементы позволяют быть замеченным в темное время суток, что особенно важно для безопасности дорожного движения. Рюкзак Manifest полностью изготовлен из светоотражающей ткани — детей будет видно издалека.Объем 7 лВыдерживает нагрузку до 5 кгЦентральное отделение на молнииНаружный карман на молнииРучка для переноскиРегулируемые лямкиПоставляется в полиэтиленовом пакете.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>полиэстер 35%; хлопок 65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>71489.30</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Рюкзак Barkpack</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/198374</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Barkpack</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>990</v>
+      </c>
+      <c r="H80" t="n">
+        <v>450</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Рюкзак, от которого слышится лай. А все потому, что в стаю песиков пробрались котики. Но места в рюкзаке хватит всем, настолько он вместительный.Объем 16 лВыдерживает нагрузку до 7 кгБольшое центральное отделениеНаружный карман на молнииВнутренний карман для документовУплотненная спинка</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>71491.80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Рюкзак Doodles</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/198378</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Doodles</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>990</v>
+      </c>
+      <c r="H81" t="n">
+        <v>457</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Искусство каракулей — это умение рисовать в потоке подсознания. Простые линии в какой-то момент могут обрести вполне определенную форму. Например, форму рюкзака, в который можно сложить краски, кисти, карандаши и многие другие важные вещи.Объем 16 лВыдерживает нагрузку до 7 кгБольшое центральное отделениеНаружный карман на молнииВнутренний карман для документовУплотненная спинка</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>71496.30</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Рюкзак «Примерный», черный</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/198388</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>990</v>
+      </c>
+      <c r="H82" t="n">
+        <v>964</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Рюкзак с девизом: «Единственное, что могу считать в математике, — считаю, что это не мое». Судя по размеру, вмещает энное количество вещей. Подтверждение этому можно находить снова и снова.Объем 16 лВыдерживает нагрузку до 7 кгБольшое центральное отделениеНаружный карман на молнииВнутренний карман для документовУплотненная спинка</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>11412.10</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Складной рюкзак-трансформер Torren, серый</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/142807</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>999</v>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Практически невесомый рюкзак одним движением складывается и превращается в полноценную сумку, которую удобно носить на плече. Выполнен из ткани рипстоп  с водоотталкивающей пропиткой, что гарантирует оптимальное сочетание прочности и легкости. Сумка:2 отделения на молнии2 наружных кармана на молнииСъемный регулируемый плечевой ременьРюкзак:Вместительное центральное отделениеДва боковых кармана из сеткиДва наружных кармана спередиДва наружных кармана на днеВыдерживает нагрузку до 5 кгПоставляется в пакете с липким краем.</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>полиэстер, 190D, рипстоп</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>12450.10</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Рюкзак Melango, серый</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/173211</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>999</v>
+      </c>
+      <c r="H84" t="n">
+        <v>631</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Городской рюкзак из меланжевой ткани.Объем 10 лБольшое центральное отделение на молнииНаружный карман на молнииАнатомические лямкиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>12450.50</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Рюкзак Melango, серый</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/173213</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>красный</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>999</v>
+      </c>
+      <c r="H85" t="n">
+        <v>994</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Городской рюкзак из меланжевой ткани.Объем 10 лБольшое центральное отделение на молнииНаружный карман на молнииАнатомические лямкиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>12450.12</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Рюкзак Melango, серый</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/207340</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>коричневый</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1019</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Городской рюкзак из меланжевой ткани.Объем 10 лБольшое центральное отделение на молнииНаружный карман на молнииАнатомические лямкиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>12450.90</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Рюкзак Melango, серый</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/207338</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>зеленый</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1018</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Городской рюкзак из меланжевой ткани.Объем 10 лБольшое центральное отделение на молнииНаружный карман на молнииАнатомические лямкиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>12450.40</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Рюкзак Melango, серый</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/173212</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2035</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Городской рюкзак из меланжевой ткани.Объем 10 лБольшое центральное отделение на молнииНаружный карман на молнииАнатомические лямкиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>12450.44</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Рюкзак Melango, серый</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/207339</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>темно-синий</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1918</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Городской рюкзак из меланжевой ткани.Объем 10 лБольшое центральное отделение на молнииНаружный карман на молнииАнатомические лямкиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>12450.30</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Рюкзак Melango, серый</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/173209</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>980</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Городской рюкзак из меланжевой ткани.Объем 10 лБольшое центральное отделение на молнииНаружный карман на молнииАнатомические лямкиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>полиэстер, 300D</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>13806.20</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Рюкзак Easy, оранжевый</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203496</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>оранжевый</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>999</v>
+      </c>
+      <c r="H91" t="n">
+        <v>507</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Объем 12 литров.Большое центральное отделениеНаружный карман на молнииДва боковых наружных кармана из сеткиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>полиэстер, 600 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>13806.40</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Рюкзак Easy, оранжевый</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203491</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>темно-синий</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>999</v>
+      </c>
+      <c r="H92" t="n">
+        <v>561</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Объем 12 литров.Большое центральное отделениеНаружный карман на молнииДва боковых наружных кармана из сеткиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>полиэстер, 600 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>13806.30</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Рюкзак Easy, оранжевый</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203497</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>999</v>
+      </c>
+      <c r="H93" t="n">
+        <v>672</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Объем 12 литров.Большое центральное отделениеНаружный карман на молнииДва боковых наружных кармана из сеткиВыдерживает нагрузку до 10 кг</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>полиэстер, 600 D</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>02111600TUN</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Рюкзак Chill, синий (деним)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/108415</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>синий (деним)</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>1025</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8819</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Рюкзак с регулируемым шнурком-затяжкой. Вместимость 7,5 литров.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>хлопок 70%, деним; полиэстер 30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>3864.12</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/23148</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>песочный</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3864.10</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/161598</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5267</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>3864.55</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203727</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>бордовый</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2811</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>3864.50</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/7018</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>красный</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H98" t="n">
+        <v>452</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>3864.59</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203730</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>шоколадно-коричневый</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1976</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>3864.20</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/23150</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>оранжевый</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H100" t="n">
+        <v>27</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>3864.99</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203728</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>хаки</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H101" t="n">
+        <v>39</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3864.94</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203729</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>зеленое яблоко</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H102" t="n">
+        <v>9010</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>3864.14</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/7022</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>голубой</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H103" t="n">
+        <v>6818</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3864.40</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/23149</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>кобальт (темно-синий)</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H104" t="n">
+        <v>354</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>3864.44</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/184991</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>ярко-синий</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H105" t="n">
+        <v>513</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>3864.70</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203731</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>фиолетовый</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3411</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>3864.57</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Рюкзак Rider, песочный</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203726</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>ярко-розовый (фуксия)</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>1079</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10628</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Объем 15,7 литров.Большое центральное отделение на молнии.Наружный карман на молнии.Выход для наушников.Усиленные регулируемые лямки.</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>полиэстер 100%, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>13553.15</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Рюкзак Mi Casual Daypack, розовый</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/196354</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>розовый</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>от 1 шт.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1 отделение на молнии с внутренним карманом3 наружных кармана: передний на молнии, 2 открытых боковыхРегулируемые мягкие лямки с мягким наполнителем из вспененного материалаСпинка с мягким наполнителем из вспененного материалаКачественные молнии YKKОбъем 10 л</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>13553.20</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Рюкзак Mi Casual Daypack, розовый</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/196353</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>оранжевый</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1 отделение на молнии с внутренним карманом3 наружных кармана: передний на молнии, 2 открытых боковыхРегулируемые мягкие лямки с мягким наполнителем из вспененного материалаСпинка с мягким наполнителем из вспененного материалаКачественные молнии YKKОбъем 10 л</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>13553.40</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Рюкзак Mi Casual Daypack, розовый</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/196349</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1 отделение на молнии с внутренним карманом3 наружных кармана: передний на молнии, 2 открытых боковыхРегулируемые мягкие лямки с мягким наполнителем из вспененного материалаСпинка с мягким наполнителем из вспененного материалаКачественные молнии YKKОбъем 10 л</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>13553.43</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Рюкзак Mi Casual Daypack, розовый</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/196350</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>темно-синий</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>от 1 шт.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1 отделение на молнии с внутренним карманом3 наружных кармана: передний на молнии, 2 открытых боковыхРегулируемые мягкие лямки с мягким наполнителем из вспененного материалаСпинка с мягким наполнителем из вспененного материалаКачественные молнии YKKОбъем 10 л</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>13553.30</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Рюкзак Mi Casual Daypack, розовый</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/196347</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1 отделение на молнии с внутренним карманом3 наружных кармана: передний на молнии, 2 открытых боковыхРегулируемые мягкие лямки с мягким наполнителем из вспененного материалаСпинка с мягким наполнителем из вспененного материалаКачественные молнии YKKОбъем 10 л</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>полиэстер</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>13808.10</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Рюкзак Berna, бежевый</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203541</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>бежевый</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H113" t="n">
+        <v>148</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Классический городской рюкзак.Объем 14 лВыдерживает нагрузку до 10 кгНаружный карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>13808.50</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Рюкзак Berna, бежевый</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203536</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>красный</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H114" t="n">
+        <v>212</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Классический городской рюкзак.Объем 14 лВыдерживает нагрузку до 10 кгНаружный карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>13808.20</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Рюкзак Berna, бежевый</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203540</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>оранжевый</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Классический городской рюкзак.Объем 14 лВыдерживает нагрузку до 10 кгНаружный карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>13808.80</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Рюкзак Berna, бежевый</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203537</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>желтый</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Классический городской рюкзак.Объем 14 лВыдерживает нагрузку до 10 кгНаружный карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>13808.89</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Рюкзак Berna, бежевый</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203538</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>зеленое яблоко</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2398</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Классический городской рюкзак.Объем 14 лВыдерживает нагрузку до 10 кгНаружный карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>13808.14</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Рюкзак Berna, бежевый</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203539</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>голубой</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H118" t="n">
+        <v>12</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Классический городской рюкзак.Объем 14 лВыдерживает нагрузку до 10 кгНаружный карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>13808.40</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Рюкзак Berna, бежевый</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203535</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>темно-синий</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H119" t="n">
+        <v>488</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Классический городской рюкзак.Объем 14 лВыдерживает нагрузку до 10 кгНаружный карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>13808.30</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Рюкзак Berna, бежевый</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/203533</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>1149</v>
+      </c>
+      <c r="H120" t="n">
+        <v>308</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Классический городской рюкзак.Объем 14 лВыдерживает нагрузку до 10 кгНаружный карман на молнииМягкая спинкаРегулируемые лямки</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>13919.30</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Сумки</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Рюкзак спортивный Athletic, черный</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://gifts.ru/id/206691</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>черный</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>1190</v>
+      </c>
+      <c r="H121" t="n">
+        <v>981</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Вместительный рюкзак с отделением для обуви пригодится на тренировке или в короткой поездке — дополнительная пара обуви отделена от основного объема и не пачкает одежду.Выдерживает нагрузку до 10 кг.Объем 25 литров.Большое центральное отделение на молнии.Отделение для обуви.Внутренний карман для мелочей на молнии.</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>полиэстер, 600D</t>
         </is>
       </c>
     </row>
